--- a/CINERGI-ResourceInventoryTemplate.xlsx
+++ b/CINERGI-ResourceInventoryTemplate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="260" windowWidth="25640" windowHeight="16060" tabRatio="713" activeTab="2"/>
+    <workbookView xWindow="1365" yWindow="255" windowWidth="25635" windowHeight="16065" tabRatio="713" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="Type" localSheetId="5">[1]Engine!$A$4:$A$5</definedName>
     <definedName name="Type">Engine!$A$4:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1719,7 +1719,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="554">
   <si>
     <t>Revision</t>
   </si>
@@ -3503,6 +3503,33 @@
   <si>
     <t>https://www.earthcube.org/</t>
   </si>
+  <si>
+    <t>Data-Driven Yale</t>
+  </si>
+  <si>
+    <t>http://datadriven.yale.edu/</t>
+  </si>
+  <si>
+    <t>ESRI</t>
+  </si>
+  <si>
+    <t>http://www.esri.com/</t>
+  </si>
+  <si>
+    <t>Builds mapping software- ArcGIS</t>
+  </si>
+  <si>
+    <t>ACCORD</t>
+  </si>
+  <si>
+    <t>https://www2.acom.ucar.edu/accord</t>
+  </si>
+  <si>
+    <t>atmospheric science</t>
+  </si>
+  <si>
+    <t>geomapping</t>
+  </si>
 </sst>
 </file>
 
@@ -3514,7 +3541,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="82" x14ac:knownFonts="1">
+  <fonts count="82">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6492,7 +6519,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6552,14 +6579,14 @@
           <a:noFill/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
             <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -7217,11 +7244,201 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3048000" cy="3038475"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="1476375"/>
+          <a:ext cx="3048000" cy="3038475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The Yale Data-Driven Environmental Solutions Group (Data-Driven Yale) is an interdisciplinary and international group of researchers, scientists, programmers, and visual designers based at Yale University’s School of Forestry and Environmental Studies and Yale-NUS College, Singapore. Data-Driven Yale uses innovative data analytics to distill signals from large-scale and unconventional datasets and develop policy solutions to contemporary environmental problems. Working with scholars and policymakers across the globe, Data-Driven Yale strives to strengthen environmental policy at all levels.  We promote evidence-based approaches to problem solving while boosting information disclosure and transparency among public institutions, private companies, civic organizations and individual citizens</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3067050" cy="1771650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="4752975"/>
+          <a:ext cx="3067050" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The Atmospheric Chemistry Center for Observational Research and Data (ACCORD) was established in 2014, in cooperation with NSF, to better connect the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>Atmospheric Chemistry Observations and Modeling Laboratory (ACOM)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> with its University partners in the area of </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>in situ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> observational research</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -7576,15 +7793,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18">
+    <row r="1" spans="2:5" ht="18.75">
       <c r="B1" s="40" t="s">
         <v>356</v>
       </c>
@@ -7600,7 +7817,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" ht="30">
       <c r="B3" s="40" t="s">
         <v>358</v>
       </c>
@@ -7630,7 +7847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="28">
+    <row r="9" spans="2:5" ht="30">
       <c r="B9" s="34"/>
       <c r="C9" s="33" t="s">
         <v>336</v>
@@ -7642,7 +7859,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" ht="30">
       <c r="B10" s="34"/>
       <c r="C10" s="33" t="s">
         <v>512</v>
@@ -7680,8 +7897,8 @@
       <c r="D13" s="38"/>
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1"/>
-    <row r="15" spans="2:5" ht="16" thickBot="1">
+    <row r="14" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1">
       <c r="B15" s="50"/>
       <c r="C15" s="58" t="s">
         <v>267</v>
@@ -7692,14 +7909,14 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="17" thickBot="1">
+    <row r="18" spans="3:5" ht="18" thickBot="1">
       <c r="C18" s="53" t="s">
         <v>268</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="3:5" ht="15" thickTop="1">
+    <row r="19" spans="3:5" ht="15.75" thickTop="1">
       <c r="C19" s="52" t="s">
         <v>1</v>
       </c>
@@ -7752,10 +7969,10 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8001,26 +8218,26 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="142" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="52.1640625" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="8" width="29.5" style="142" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="13" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="142" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="8" width="29.42578125" style="142" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="216" customFormat="1" ht="99.75" customHeight="1">
@@ -8079,6 +8296,51 @@
       </c>
       <c r="F2" t="s">
         <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="243" customHeight="1">
+      <c r="B3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E4" t="s">
+        <v>549</v>
+      </c>
+      <c r="F4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="108" customHeight="1">
+      <c r="B5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F5" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -8088,9 +8350,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8110,25 +8372,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="210" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="210" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="210" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="199" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="140" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="210" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="210" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="210" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="210" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="199" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="140" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="210" customWidth="1"/>
     <col min="7" max="7" width="14" style="210" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="210" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="210" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="210" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="210" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" style="210" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="210" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="142"/>
+    <col min="8" max="8" width="12.140625" style="210" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="210" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="210" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="210" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="210" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="210" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="65" customHeight="1">
+    <row r="1" spans="1:18" ht="65.099999999999994" customHeight="1">
       <c r="A1" s="226" t="s">
         <v>319</v>
       </c>
@@ -8182,7 +8444,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="60">
+    <row r="3" spans="1:18" ht="90">
       <c r="A3" s="211" t="s">
         <v>479</v>
       </c>
@@ -8209,7 +8471,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="40">
+    <row r="4" spans="1:18" ht="56.25">
       <c r="A4" s="211" t="s">
         <v>483</v>
       </c>
@@ -8240,7 +8502,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="110">
+    <row r="5" spans="1:18" ht="146.25">
       <c r="A5" s="211" t="s">
         <v>487</v>
       </c>
@@ -8271,7 +8533,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="70">
+    <row r="6" spans="1:18" ht="90">
       <c r="A6" s="211" t="s">
         <v>490</v>
       </c>
@@ -8302,7 +8564,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="90">
+    <row r="7" spans="1:18" ht="123.75">
       <c r="A7" s="211" t="s">
         <v>493</v>
       </c>
@@ -8412,19 +8674,19 @@
       <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="81.83203125" customWidth="1"/>
-    <col min="8" max="8" width="87.83203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="81.85546875" customWidth="1"/>
+    <col min="8" max="8" width="87.85546875" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:8" ht="19.5">
       <c r="A1" s="237" t="s">
         <v>227</v>
       </c>
@@ -8435,7 +8697,7 @@
       <c r="F1" s="237"/>
       <c r="G1" s="238"/>
     </row>
-    <row r="2" spans="1:8" ht="70.25" customHeight="1">
+    <row r="2" spans="1:8" ht="70.349999999999994" customHeight="1">
       <c r="A2" s="43"/>
       <c r="B2" s="147" t="s">
         <v>228</v>
@@ -8498,7 +8760,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="142" customFormat="1" ht="98">
+    <row r="5" spans="1:8" s="142" customFormat="1" ht="135">
       <c r="A5" s="200"/>
       <c r="B5" s="203" t="s">
         <v>43</v>
@@ -8522,7 +8784,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="142" customFormat="1" ht="28">
+    <row r="6" spans="1:8" s="142" customFormat="1" ht="30">
       <c r="A6" s="204"/>
       <c r="B6" s="201" t="s">
         <v>114</v>
@@ -8546,7 +8808,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="142" customFormat="1" ht="42">
+    <row r="7" spans="1:8" s="142" customFormat="1" ht="60">
       <c r="A7" s="205"/>
       <c r="B7" s="201" t="s">
         <v>21</v>
@@ -8570,7 +8832,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="142" customFormat="1" ht="100.25" customHeight="1">
+    <row r="8" spans="1:8" s="142" customFormat="1" ht="100.35" customHeight="1">
       <c r="A8" s="184"/>
       <c r="B8" s="149" t="s">
         <v>20</v>
@@ -8594,7 +8856,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="142" customFormat="1" ht="18.5" customHeight="1">
+    <row r="9" spans="1:8" s="142" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="152"/>
       <c r="B9" s="149" t="s">
         <v>344</v>
@@ -8618,7 +8880,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="142" customFormat="1" ht="70">
+    <row r="10" spans="1:8" s="142" customFormat="1" ht="90">
       <c r="A10" s="152"/>
       <c r="B10" s="149" t="s">
         <v>345</v>
@@ -8642,7 +8904,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="142" customFormat="1" ht="28">
+    <row r="11" spans="1:8" s="142" customFormat="1" ht="45">
       <c r="A11" s="152"/>
       <c r="B11" s="149" t="s">
         <v>346</v>
@@ -8688,7 +8950,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="68" customFormat="1" ht="61.75" customHeight="1">
+    <row r="13" spans="1:8" s="68" customFormat="1" ht="61.7" customHeight="1">
       <c r="A13" s="64"/>
       <c r="C13" s="146" t="s">
         <v>337</v>
@@ -8699,7 +8961,7 @@
       <c r="G13" s="66"/>
       <c r="H13" s="67"/>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="148"/>
       <c r="B14" s="149" t="s">
         <v>70</v>
@@ -8723,7 +8985,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.5" customHeight="1">
+    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="152"/>
       <c r="B15" s="149" t="s">
         <v>26</v>
@@ -8747,7 +9009,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="23.25">
       <c r="A16" s="152"/>
       <c r="B16" s="149" t="s">
         <v>25</v>
@@ -8769,7 +9031,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28">
+    <row r="17" spans="1:8" ht="45">
       <c r="A17" s="152"/>
       <c r="B17" s="149" t="s">
         <v>31</v>
@@ -8815,7 +9077,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="142" customFormat="1" ht="34.25" customHeight="1">
+    <row r="19" spans="1:8" s="142" customFormat="1" ht="34.35" customHeight="1">
       <c r="A19" s="160"/>
       <c r="B19" s="149" t="s">
         <v>35</v>
@@ -8839,7 +9101,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="142" customFormat="1" ht="14.5" customHeight="1">
+    <row r="20" spans="1:8" s="142" customFormat="1" ht="14.45" customHeight="1">
       <c r="A20" s="163"/>
       <c r="B20" s="149" t="s">
         <v>45</v>
@@ -8863,7 +9125,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="142" customFormat="1" ht="56">
+    <row r="21" spans="1:8" s="142" customFormat="1" ht="75">
       <c r="A21" s="163"/>
       <c r="B21" s="164" t="s">
         <v>22</v>
@@ -9069,7 +9331,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="34.25" customHeight="1">
+    <row r="30" spans="1:8" ht="34.35" customHeight="1">
       <c r="A30" s="169" t="s">
         <v>39</v>
       </c>
@@ -9096,7 +9358,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="56">
+    <row r="31" spans="1:8" ht="63.75">
       <c r="A31" s="172" t="s">
         <v>125</v>
       </c>
@@ -9119,7 +9381,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28">
+    <row r="32" spans="1:8" ht="30">
       <c r="A32" s="169" t="s">
         <v>36</v>
       </c>
@@ -9244,7 +9506,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="42">
+    <row r="37" spans="1:8" ht="38.25">
       <c r="A37" s="169" t="s">
         <v>72</v>
       </c>
@@ -9270,7 +9532,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="22.5">
       <c r="A38" s="175"/>
       <c r="B38" s="149" t="s">
         <v>33</v>
@@ -9318,7 +9580,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="56" customHeight="1">
+    <row r="40" spans="1:8" ht="56.1" customHeight="1">
       <c r="A40" s="175"/>
       <c r="B40" s="165" t="s">
         <v>190</v>
@@ -9341,7 +9603,7 @@
       </c>
       <c r="H40" s="108"/>
     </row>
-    <row r="41" spans="1:8" ht="31.25" customHeight="1">
+    <row r="41" spans="1:8" ht="31.35" customHeight="1">
       <c r="A41" s="175"/>
       <c r="B41" s="149" t="s">
         <v>111</v>
@@ -9366,7 +9628,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="31.25" customHeight="1">
+    <row r="42" spans="1:8" ht="31.35" customHeight="1">
       <c r="A42" s="234" t="s">
         <v>48</v>
       </c>
@@ -9391,7 +9653,7 @@
       </c>
       <c r="H42" s="119"/>
     </row>
-    <row r="43" spans="1:8" ht="32" customHeight="1">
+    <row r="43" spans="1:8" ht="32.1" customHeight="1">
       <c r="A43" s="235"/>
       <c r="B43" s="161" t="s">
         <v>188</v>
@@ -9414,7 +9676,7 @@
       </c>
       <c r="H43" s="119"/>
     </row>
-    <row r="44" spans="1:8" ht="23.5" customHeight="1">
+    <row r="44" spans="1:8" ht="23.45" customHeight="1">
       <c r="A44" s="235"/>
       <c r="B44" s="149" t="s">
         <v>112</v>
@@ -9437,7 +9699,7 @@
       </c>
       <c r="H44" s="113"/>
     </row>
-    <row r="45" spans="1:8" ht="35" customHeight="1">
+    <row r="45" spans="1:8" ht="35.1" customHeight="1">
       <c r="A45" s="235"/>
       <c r="B45" s="179" t="s">
         <v>41</v>
@@ -9461,7 +9723,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="70">
+    <row r="46" spans="1:8" ht="90">
       <c r="A46" s="235"/>
       <c r="B46" s="179" t="s">
         <v>42</v>
@@ -9510,7 +9772,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28">
+    <row r="48" spans="1:8" ht="30">
       <c r="A48" s="235"/>
       <c r="B48" s="149" t="s">
         <v>24</v>
@@ -9534,7 +9796,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="33">
+    <row r="49" spans="1:8" ht="45">
       <c r="A49" s="235"/>
       <c r="B49" s="149" t="s">
         <v>44</v>
@@ -9558,7 +9820,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="44.5" customHeight="1">
+    <row r="50" spans="1:8" ht="44.45" customHeight="1">
       <c r="A50" s="235"/>
       <c r="B50" s="149" t="s">
         <v>46</v>
@@ -9582,7 +9844,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="45.5" customHeight="1">
+    <row r="51" spans="1:8" ht="45.6" customHeight="1">
       <c r="A51" s="236"/>
       <c r="B51" s="149" t="s">
         <v>47</v>
@@ -9672,7 +9934,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="32" customFormat="1">
+    <row r="55" spans="1:8" s="32" customFormat="1" ht="25.5">
       <c r="A55" s="183" t="s">
         <v>60</v>
       </c>
@@ -9762,7 +10024,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="32" customFormat="1" ht="42">
+    <row r="59" spans="1:8" s="32" customFormat="1" ht="60">
       <c r="A59" s="184"/>
       <c r="B59" s="179" t="s">
         <v>59</v>
@@ -9812,7 +10074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="32" customFormat="1" ht="70">
+    <row r="61" spans="1:8" s="32" customFormat="1" ht="90">
       <c r="A61" s="184"/>
       <c r="B61" s="149" t="s">
         <v>77</v>
@@ -9906,7 +10168,7 @@
       </c>
       <c r="H64" s="140"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="22.5">
       <c r="A65" s="184"/>
       <c r="B65" s="149" t="s">
         <v>66</v>
@@ -9953,7 +10215,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20" thickBot="1">
+    <row r="67" spans="1:8" ht="20.25" thickBot="1">
       <c r="A67" s="41" t="s">
         <v>160</v>
       </c>
@@ -9978,7 +10240,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickTop="1">
+    <row r="68" spans="1:8" ht="15.75" thickTop="1">
       <c r="A68" s="25"/>
       <c r="B68" s="63" t="s">
         <v>64</v>
@@ -10090,7 +10352,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="66">
+    <row r="73" spans="1:8" ht="90">
       <c r="B73" s="63" t="s">
         <v>175</v>
       </c>
@@ -10277,11 +10539,11 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="56.5" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
@@ -10294,7 +10556,7 @@
       <c r="E1" s="243"/>
       <c r="F1" s="243"/>
     </row>
-    <row r="2" spans="1:6" ht="35.5" customHeight="1" thickTop="1">
+    <row r="2" spans="1:6" ht="35.450000000000003" customHeight="1" thickTop="1">
       <c r="A2" s="242" t="s">
         <v>324</v>
       </c>
@@ -10406,17 +10668,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="B28" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="189" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="142" customWidth="1"/>
-    <col min="3" max="3" width="71.5" style="142" customWidth="1"/>
-    <col min="4" max="4" width="33.5" style="142" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="142"/>
+    <col min="1" max="1" width="19.28515625" style="189" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="142" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" style="142" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="142" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="142"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickTop="1" thickBot="1">
@@ -10433,7 +10695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58" thickTop="1" thickBot="1">
+    <row r="2" spans="1:4" ht="61.5" thickTop="1" thickBot="1">
       <c r="A2" s="189" t="s">
         <v>364</v>
       </c>
@@ -10447,7 +10709,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43" thickBot="1">
+    <row r="3" spans="1:4" ht="45.75" thickBot="1">
       <c r="A3" s="190" t="s">
         <v>367</v>
       </c>
@@ -10461,7 +10723,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" thickBot="1">
+    <row r="4" spans="1:4" ht="30.75" thickBot="1">
       <c r="A4" s="190" t="s">
         <v>480</v>
       </c>
@@ -10475,7 +10737,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1">
       <c r="A5" s="190" t="s">
         <v>372</v>
       </c>
@@ -10503,7 +10765,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="223" t="s">
         <v>532</v>
       </c>
@@ -10517,7 +10779,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="31.5">
       <c r="A8" s="223" t="s">
         <v>535</v>
       </c>
@@ -10531,7 +10793,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="183" thickBot="1">
+    <row r="9" spans="1:4" ht="240.75" thickBot="1">
       <c r="A9" s="191" t="s">
         <v>78</v>
       </c>
@@ -10545,7 +10807,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" thickBot="1">
+    <row r="10" spans="1:4" ht="30.75" thickBot="1">
       <c r="A10" s="190" t="s">
         <v>375</v>
       </c>
@@ -10559,7 +10821,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" thickBot="1">
+    <row r="11" spans="1:4" ht="30.75" thickBot="1">
       <c r="A11" s="190" t="s">
         <v>378</v>
       </c>
@@ -10573,7 +10835,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" thickBot="1">
+    <row r="12" spans="1:4" ht="45.75" thickBot="1">
       <c r="A12" s="190" t="s">
         <v>380</v>
       </c>
@@ -10587,7 +10849,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57" thickBot="1">
+    <row r="13" spans="1:4" ht="75.75" thickBot="1">
       <c r="A13" s="190" t="s">
         <v>382</v>
       </c>
@@ -10601,7 +10863,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99" thickBot="1">
+    <row r="14" spans="1:4" ht="120.75" thickBot="1">
       <c r="A14" s="190" t="s">
         <v>385</v>
       </c>
@@ -10615,7 +10877,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57" thickBot="1">
+    <row r="15" spans="1:4" ht="75.75" thickBot="1">
       <c r="A15" s="190" t="s">
         <v>388</v>
       </c>
@@ -10629,7 +10891,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="127" thickBot="1">
+    <row r="16" spans="1:4" ht="165.75" thickBot="1">
       <c r="A16" s="190" t="s">
         <v>391</v>
       </c>
@@ -10643,7 +10905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1">
       <c r="A17" s="190" t="s">
         <v>394</v>
       </c>
@@ -10655,7 +10917,7 @@
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:4" ht="71" thickBot="1">
+    <row r="18" spans="1:4" ht="90.75" thickBot="1">
       <c r="A18" s="190" t="s">
         <v>397</v>
       </c>
@@ -10669,7 +10931,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" thickBot="1">
+    <row r="19" spans="1:4" ht="45.75" thickBot="1">
       <c r="A19" s="190" t="s">
         <v>398</v>
       </c>
@@ -10683,7 +10945,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="71" thickBot="1">
+    <row r="20" spans="1:4" ht="90.75" thickBot="1">
       <c r="A20" s="190" t="s">
         <v>400</v>
       </c>
@@ -10697,7 +10959,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="85" thickBot="1">
+    <row r="21" spans="1:4" ht="105.75" thickBot="1">
       <c r="A21" s="190" t="s">
         <v>79</v>
       </c>
@@ -10711,7 +10973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56">
+    <row r="22" spans="1:4" ht="75">
       <c r="A22" s="192" t="s">
         <v>402</v>
       </c>
@@ -10725,7 +10987,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="71" thickBot="1">
+    <row r="23" spans="1:4" ht="90.75" thickBot="1">
       <c r="A23" s="193" t="s">
         <v>404</v>
       </c>
@@ -10739,7 +11001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43" thickBot="1">
+    <row r="24" spans="1:4" ht="45.75" thickBot="1">
       <c r="A24" s="190" t="s">
         <v>406</v>
       </c>
@@ -10753,7 +11015,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" thickBot="1">
+    <row r="25" spans="1:4" ht="45.75" thickBot="1">
       <c r="A25" s="190" t="s">
         <v>408</v>
       </c>
@@ -10767,7 +11029,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57" thickBot="1">
+    <row r="26" spans="1:4" ht="75.75" thickBot="1">
       <c r="A26" s="190" t="s">
         <v>410</v>
       </c>
@@ -10781,7 +11043,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31" thickBot="1">
+    <row r="27" spans="1:4" ht="45.75" thickBot="1">
       <c r="A27" s="190" t="s">
         <v>412</v>
       </c>
@@ -10795,7 +11057,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="71" thickBot="1">
+    <row r="28" spans="1:4" ht="90.75" thickBot="1">
       <c r="A28" s="190" t="s">
         <v>414</v>
       </c>
@@ -10809,7 +11071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="43" thickBot="1">
+    <row r="29" spans="1:4" ht="45.75" thickBot="1">
       <c r="A29" s="190" t="s">
         <v>416</v>
       </c>
@@ -10823,7 +11085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="43" thickBot="1">
+    <row r="30" spans="1:4" ht="60.75" thickBot="1">
       <c r="A30" s="190" t="s">
         <v>418</v>
       </c>
@@ -10837,7 +11099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56">
+    <row r="31" spans="1:4" ht="75">
       <c r="A31" s="192" t="s">
         <v>420</v>
       </c>
@@ -10851,7 +11113,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28">
+    <row r="32" spans="1:4" ht="45">
       <c r="A32" s="194" t="s">
         <v>422</v>
       </c>
@@ -10863,7 +11125,7 @@
       </c>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:4" ht="28">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="194" t="s">
         <v>424</v>
       </c>
@@ -10875,7 +11137,7 @@
       </c>
       <c r="D33" s="23"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" s="194" t="s">
         <v>427</v>
       </c>
@@ -10887,7 +11149,7 @@
       </c>
       <c r="D34" s="23"/>
     </row>
-    <row r="35" spans="1:4" ht="70">
+    <row r="35" spans="1:4" ht="75">
       <c r="A35" s="194" t="s">
         <v>430</v>
       </c>
@@ -10915,7 +11177,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="140">
+    <row r="37" spans="1:4" ht="195">
       <c r="A37" s="194" t="s">
         <v>80</v>
       </c>
@@ -10929,7 +11191,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="84">
+    <row r="38" spans="1:4" ht="105">
       <c r="A38" s="194" t="s">
         <v>433</v>
       </c>
@@ -10943,7 +11205,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="70">
+    <row r="39" spans="1:4" ht="90">
       <c r="A39" s="194" t="s">
         <v>436</v>
       </c>
@@ -10957,7 +11219,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="56">
+    <row r="40" spans="1:4" ht="60">
       <c r="A40" s="191" t="s">
         <v>439</v>
       </c>
@@ -10985,7 +11247,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="70">
+    <row r="42" spans="1:4" ht="90">
       <c r="A42" s="198" t="s">
         <v>81</v>
       </c>
@@ -11013,7 +11275,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="42">
+    <row r="44" spans="1:4" ht="45">
       <c r="A44" s="198" t="s">
         <v>444</v>
       </c>
@@ -11027,7 +11289,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42">
+    <row r="45" spans="1:4" ht="60">
       <c r="A45" s="198" t="s">
         <v>447</v>
       </c>
@@ -11041,7 +11303,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="154">
+    <row r="46" spans="1:4" ht="195">
       <c r="A46" s="198" t="s">
         <v>82</v>
       </c>
@@ -11055,7 +11317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28">
+    <row r="47" spans="1:4" ht="30">
       <c r="A47" s="198" t="s">
         <v>83</v>
       </c>
@@ -11067,7 +11329,7 @@
       </c>
       <c r="D47" s="23"/>
     </row>
-    <row r="48" spans="1:4" ht="98">
+    <row r="48" spans="1:4" ht="120">
       <c r="A48" s="198" t="s">
         <v>450</v>
       </c>
@@ -11081,7 +11343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="112">
+    <row r="49" spans="1:4" ht="150">
       <c r="A49" s="198" t="s">
         <v>452</v>
       </c>
@@ -11095,7 +11357,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="70">
+    <row r="50" spans="1:4" ht="90">
       <c r="A50" s="198" t="s">
         <v>454</v>
       </c>
@@ -11109,7 +11371,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="56">
+    <row r="51" spans="1:4" ht="60">
       <c r="A51" s="198" t="s">
         <v>456</v>
       </c>
@@ -11123,7 +11385,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="98">
+    <row r="52" spans="1:4" ht="120">
       <c r="A52" s="198" t="s">
         <v>459</v>
       </c>
@@ -11137,7 +11399,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="42">
+    <row r="53" spans="1:4" ht="45">
       <c r="A53" s="198" t="s">
         <v>462</v>
       </c>
@@ -11151,7 +11413,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28">
+    <row r="54" spans="1:4" ht="45">
       <c r="A54" s="198" t="s">
         <v>513</v>
       </c>
@@ -11165,7 +11427,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28">
+    <row r="55" spans="1:4" ht="45">
       <c r="A55" s="198" t="s">
         <v>463</v>
       </c>
@@ -11179,7 +11441,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="56">
+    <row r="56" spans="1:4" ht="60">
       <c r="A56" s="198" t="s">
         <v>466</v>
       </c>
@@ -11218,22 +11480,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.5" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="42" customFormat="1" ht="15" thickBot="1"/>
-    <row r="2" spans="1:3" s="42" customFormat="1" ht="17" thickBot="1">
+    <row r="1" spans="1:3" s="42" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:3" s="42" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:3" s="42" customFormat="1" ht="16" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" s="42" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>230</v>
       </c>
@@ -11247,7 +11509,7 @@
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -11261,7 +11523,7 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
       <c r="A8" s="15" t="s">
         <v>225</v>
       </c>
@@ -11275,12 +11537,12 @@
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="42">
+    <row r="11" spans="1:3" ht="60">
       <c r="A11" s="12" t="s">
         <v>176</v>
       </c>
@@ -11316,7 +11578,7 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3" ht="28">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="11" t="s">
         <v>182</v>
       </c>
@@ -11325,7 +11587,7 @@
       </c>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>183</v>
       </c>
@@ -11354,7 +11616,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
